--- a/atik-su-aritma-tesisinde-uretilen-elektrik-enerjisi-miktari/atik-su-aritma-tesisinde-uretilen-elektrik-enerjisi-miktari.xlsx
+++ b/atik-su-aritma-tesisinde-uretilen-elektrik-enerjisi-miktari/atik-su-aritma-tesisinde-uretilen-elektrik-enerjisi-miktari.xlsx
@@ -438,548 +438,471 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>baslangic_tarihi</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Değer(kwh)</t>
+          <t>bitis_tarihi</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tarih</t>
+          <t>deger_(kwh)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>611232,00</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
+      <c r="A2" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>42035</v>
       </c>
+      <c r="C2" t="n">
+        <v>611232</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>615826,00</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="A3" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>42063</v>
       </c>
+      <c r="C3" t="n">
+        <v>615826</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>957527,00</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="A4" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>42094</v>
       </c>
+      <c r="C4" t="n">
+        <v>957527</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>920036,54</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="A5" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>42124</v>
       </c>
+      <c r="C5" t="n">
+        <v>920036.54</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>928773,29</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="A6" s="2" t="n">
+        <v>42125</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>42155</v>
       </c>
+      <c r="C6" t="n">
+        <v>928773.29</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>738623,36</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="A7" s="2" t="n">
+        <v>42156</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>42185</v>
       </c>
+      <c r="C7" t="n">
+        <v>738623.36</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>803861,06</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="A8" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>42216</v>
       </c>
+      <c r="C8" t="n">
+        <v>803861.0600000001</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>948642,02</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="A9" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>42247</v>
       </c>
+      <c r="C9" t="n">
+        <v>948642.02</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>755666,52</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="A10" s="2" t="n">
+        <v>42248</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>42277</v>
       </c>
+      <c r="C10" t="n">
+        <v>755666.52</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>752889,00</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
+      <c r="A11" s="2" t="n">
+        <v>42278</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>42308</v>
       </c>
+      <c r="C11" t="n">
+        <v>752889</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>795276,70</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
+      <c r="A12" s="2" t="n">
+        <v>42309</v>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>42338</v>
       </c>
+      <c r="C12" t="n">
+        <v>795276.7</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>674220,53</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
+      <c r="A13" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>42369</v>
       </c>
+      <c r="C13" t="n">
+        <v>674220.53</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519189,75</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
+      <c r="A14" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>42400</v>
       </c>
+      <c r="C14" t="n">
+        <v>519189.75</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>471734,36</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
+      <c r="A15" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>42429</v>
       </c>
+      <c r="C15" t="n">
+        <v>471734.36</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>663517,23</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="A16" s="2" t="n">
+        <v>42430</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>42460</v>
       </c>
+      <c r="C16" t="n">
+        <v>663517.23</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>663109,68</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
+      <c r="A17" s="2" t="n">
+        <v>42461</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>42490</v>
       </c>
+      <c r="C17" t="n">
+        <v>663109.6800000001</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>693536,24</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
+      <c r="A18" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>42521</v>
       </c>
+      <c r="C18" t="n">
+        <v>693536.24</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>597641,51</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
+      <c r="A19" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>42551</v>
       </c>
+      <c r="C19" t="n">
+        <v>597641.51</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>550308,16</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
+      <c r="A20" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>42582</v>
       </c>
+      <c r="C20" t="n">
+        <v>550308.16</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>474594,79</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
+      <c r="A21" s="2" t="n">
+        <v>42583</v>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>42613</v>
       </c>
+      <c r="C21" t="n">
+        <v>474594.79</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>738287,50</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
+      <c r="A22" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>42643</v>
       </c>
+      <c r="C22" t="n">
+        <v>738287.5</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>6196131,00</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
+      <c r="A23" s="2" t="n">
+        <v>42644</v>
+      </c>
+      <c r="B23" s="2" t="n">
         <v>42674</v>
       </c>
+      <c r="C23" t="n">
+        <v>6196131</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>5447826,00</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
+      <c r="A24" s="2" t="n">
+        <v>42675</v>
+      </c>
+      <c r="B24" s="2" t="n">
         <v>42704</v>
       </c>
+      <c r="C24" t="n">
+        <v>5447826</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>8876367,00</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
+      <c r="A25" s="2" t="n">
+        <v>42705</v>
+      </c>
+      <c r="B25" s="2" t="n">
         <v>42735</v>
       </c>
+      <c r="C25" t="n">
+        <v>8876367</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>864165,00</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
+      <c r="A26" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="2" t="n">
         <v>42766</v>
       </c>
+      <c r="C26" t="n">
+        <v>864165</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>697659,00</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="n">
+      <c r="A27" s="2" t="n">
+        <v>42767</v>
+      </c>
+      <c r="B27" s="2" t="n">
         <v>42794</v>
       </c>
+      <c r="C27" t="n">
+        <v>697659</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>907365,00</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n">
+      <c r="A28" s="2" t="n">
+        <v>42795</v>
+      </c>
+      <c r="B28" s="2" t="n">
         <v>42825</v>
       </c>
+      <c r="C28" t="n">
+        <v>907365</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>738304,00</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
+      <c r="A29" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="B29" s="2" t="n">
         <v>42855</v>
       </c>
+      <c r="C29" t="n">
+        <v>738304</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>724670,00</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
+      <c r="A30" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="B30" s="2" t="n">
         <v>42886</v>
       </c>
+      <c r="C30" t="n">
+        <v>724670</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>680726,00</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="n">
+      <c r="A31" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="B31" s="2" t="n">
         <v>42916</v>
       </c>
+      <c r="C31" t="n">
+        <v>680726</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>308717,00</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n">
+      <c r="A32" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="B32" s="2" t="n">
         <v>42947</v>
       </c>
+      <c r="C32" t="n">
+        <v>308717</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>697879,40</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="n">
+      <c r="A33" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B33" s="2" t="n">
         <v>42978</v>
       </c>
+      <c r="C33" t="n">
+        <v>697879.4</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>562325,50</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="n">
+      <c r="A34" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="B34" s="2" t="n">
         <v>43008</v>
       </c>
+      <c r="C34" t="n">
+        <v>562325.5</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>842588,10</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="n">
+      <c r="A35" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="B35" s="2" t="n">
         <v>43039</v>
       </c>
+      <c r="C35" t="n">
+        <v>842588.1</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>988507,80</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="n">
+      <c r="A36" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="B36" s="2" t="n">
         <v>43069</v>
       </c>
+      <c r="C36" t="n">
+        <v>988507.8</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1133366,40</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="n">
+      <c r="A37" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="B37" s="2" t="n">
         <v>43100</v>
       </c>
+      <c r="C37" t="n">
+        <v>1133366.4</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>582829,00</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="n">
+      <c r="A38" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B38" s="2" t="n">
         <v>43131</v>
       </c>
+      <c r="C38" t="n">
+        <v>582829</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>387462,00</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="n">
+      <c r="A39" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B39" s="2" t="n">
         <v>43159</v>
       </c>
+      <c r="C39" t="n">
+        <v>387462</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>361152,00</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="n">
+      <c r="A40" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B40" s="2" t="n">
         <v>43190</v>
       </c>
+      <c r="C40" t="n">
+        <v>361152</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>308616,00</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="n">
+      <c r="A41" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B41" s="2" t="n">
         <v>43220</v>
       </c>
+      <c r="C41" t="n">
+        <v>308616</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>68434,00</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="n">
+      <c r="A42" s="2" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B42" s="2" t="n">
         <v>43251</v>
+      </c>
+      <c r="C42" t="n">
+        <v>68434</v>
       </c>
     </row>
   </sheetData>
